--- a/glosario.xlsx
+++ b/glosario.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Individuo PRUEBA</t>
+          <t>Individuo probando</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/glosario.xlsx
+++ b/glosario.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>El domicilio es una descripción específica y detallada de la ubicación de un lugar, residencia o entidad, que permite su identificación y localización precisa. Una dirección incluye información del nombre de la calle, el número interior y exterior de la casa o edificio, el nombre de la ciudad o localidad, el estado o provincia, el país y el códigos postales</t>
+          <t>Esta es la nueva definición del domicilio</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
